--- a/normativa/Anexos/L05T02C03/L05T02C03A04.3.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04.3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 1'!$A$1:$AA$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 1'!$A$1:$AF$61</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -243,6 +243,34 @@
   </si>
   <si>
     <t>ANEXO 4.3: INVERSIONES TEMPORARIAS</t>
+  </si>
+  <si>
+    <t>(14) En el caso de inversiones en entidades financieras del exterior, registrar el organismo que supervisa dichas entidades.</t>
+  </si>
+  <si>
+    <t>(15) En el caso de inversiones en títulos - valores emitidos en el exterior, insertar el Registro equivalente al "Registro de Mercado de Valores" del país donde se emiten.</t>
+  </si>
+  <si>
+    <t>FECHA DE
+EMISIÓN</t>
+  </si>
+  <si>
+    <t>VALOR NOMINAL DEL TÍTULO O DOC.</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE TÍTULOS O DOC.</t>
+  </si>
+  <si>
+    <t>ORGANISMO DE SUPERVISIÓN</t>
+  </si>
+  <si>
+    <t>REGISTRO DE INSCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>(14)</t>
+  </si>
+  <si>
+    <t>(15)</t>
   </si>
 </sst>
 </file>
@@ -498,7 +526,7 @@
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -560,8 +588,11 @@
     <xf numFmtId="39" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="39" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,9 +611,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -631,7 +670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,7 +705,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,121 +914,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:AJ59"/>
+  <dimension ref="A2:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.44140625" style="1" customWidth="1"/>
-    <col min="25" max="26" width="9.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="3.6640625" style="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="8.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:38" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+    </row>
+    <row r="3" spans="1:38" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N4" s="2"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:38" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1005,225 +1047,256 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-    </row>
-    <row r="6" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+    </row>
+    <row r="6" spans="1:38" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:36" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="R10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="S10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="T10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="U10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="X10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="Y10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="Z10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="AA10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="AB10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="AC10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AA10" s="10" t="s">
+      <c r="AD10" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="12"/>
+      <c r="S11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="T11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="X11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="Y11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12" t="s">
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Y11" s="12" t="s">
+      <c r="AB11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Z11" s="12" t="s">
+      <c r="AC11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AD11" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AE11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF11" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="H12" s="15"/>
       <c r="I12" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -1240,16 +1313,21 @@
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
-    </row>
-    <row r="13" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+    </row>
+    <row r="13" spans="1:38" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -1269,16 +1347,21 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
-    </row>
-    <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+    </row>
+    <row r="14" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
@@ -1298,18 +1381,23 @@
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
-    </row>
-    <row r="15" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+    </row>
+    <row r="15" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1329,16 +1417,21 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
-    </row>
-    <row r="16" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+    </row>
+    <row r="16" spans="1:38" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
@@ -1358,16 +1451,21 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
-    </row>
-    <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+    </row>
+    <row r="17" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
@@ -1387,16 +1485,21 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+    </row>
+    <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
@@ -1416,18 +1519,23 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+    </row>
+    <row r="19" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -1447,16 +1555,21 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+    </row>
+    <row r="20" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
@@ -1476,16 +1589,21 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
       <c r="AA20" s="18"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+    </row>
+    <row r="21" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
@@ -1505,16 +1623,21 @@
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
       <c r="AA21" s="18"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+    </row>
+    <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
@@ -1534,18 +1657,23 @@
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
       <c r="AA22" s="18"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+    </row>
+    <row r="23" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
@@ -1565,16 +1693,21 @@
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
-    </row>
-    <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+    </row>
+    <row r="24" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="15"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="18"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -1594,16 +1727,21 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
       <c r="AA24" s="18"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+    </row>
+    <row r="25" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
@@ -1623,16 +1761,21 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+    </row>
+    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
@@ -1652,18 +1795,23 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+    </row>
+    <row r="27" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -1683,16 +1831,21 @@
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+    </row>
+    <row r="28" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="18"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
@@ -1712,16 +1865,21 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
       <c r="AA28" s="18"/>
-    </row>
-    <row r="29" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+    </row>
+    <row r="29" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="18"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
@@ -1741,16 +1899,21 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
-    </row>
-    <row r="30" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+    </row>
+    <row r="30" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="15"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="18"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
@@ -1770,18 +1933,23 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
-    </row>
-    <row r="31" spans="1:27" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+    </row>
+    <row r="31" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
@@ -1801,16 +1969,21 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
       <c r="AA31" s="21"/>
-    </row>
-    <row r="32" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+    </row>
+    <row r="32" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="18"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
@@ -1830,16 +2003,21 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
-    </row>
-    <row r="33" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+    </row>
+    <row r="33" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="18"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
@@ -1859,18 +2037,23 @@
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
       <c r="AA33" s="18"/>
-    </row>
-    <row r="34" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+    </row>
+    <row r="34" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="18"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
@@ -1890,18 +2073,23 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
       <c r="AA34" s="18"/>
-    </row>
-    <row r="35" spans="1:27" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+    </row>
+    <row r="35" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
@@ -1921,16 +2109,21 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
-    </row>
-    <row r="36" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+    </row>
+    <row r="36" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="18"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
@@ -1950,16 +2143,21 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
       <c r="AA36" s="18"/>
-    </row>
-    <row r="37" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+    </row>
+    <row r="37" spans="1:32" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="18"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
@@ -1979,16 +2177,21 @@
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
-    </row>
-    <row r="38" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+    </row>
+    <row r="38" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="15"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="18"/>
+      <c r="H38" s="15"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -2008,13 +2211,18 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
       <c r="AA38" s="18"/>
-    </row>
-    <row r="39" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+    </row>
+    <row r="39" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
@@ -2039,13 +2247,18 @@
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
       <c r="AA39" s="23"/>
-    </row>
-    <row r="40" spans="1:27" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+    </row>
+    <row r="40" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="20"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -2070,13 +2283,18 @@
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
-    </row>
-    <row r="41" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+    </row>
+    <row r="41" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -2101,12 +2319,17 @@
       <c r="Y41" s="28"/>
       <c r="Z41" s="28"/>
       <c r="AA41" s="28"/>
-    </row>
-    <row r="42" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+    </row>
+    <row r="42" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -2131,13 +2354,18 @@
       <c r="X42" s="29"/>
       <c r="Y42" s="29"/>
       <c r="Z42" s="29"/>
-      <c r="AA42" s="30"/>
-    </row>
-    <row r="43" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+    </row>
+    <row r="43" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -2162,13 +2390,18 @@
       <c r="X43" s="29"/>
       <c r="Y43" s="29"/>
       <c r="Z43" s="29"/>
-      <c r="AA43" s="30"/>
-    </row>
-    <row r="44" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+    </row>
+    <row r="44" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -2193,13 +2426,18 @@
       <c r="X44" s="29"/>
       <c r="Y44" s="29"/>
       <c r="Z44" s="29"/>
-      <c r="AA44" s="30"/>
-    </row>
-    <row r="45" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+    </row>
+    <row r="45" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
@@ -2224,13 +2462,18 @@
       <c r="X45" s="29"/>
       <c r="Y45" s="29"/>
       <c r="Z45" s="29"/>
-      <c r="AA45" s="30"/>
-    </row>
-    <row r="46" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+    </row>
+    <row r="46" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -2255,13 +2498,18 @@
       <c r="X46" s="29"/>
       <c r="Y46" s="29"/>
       <c r="Z46" s="29"/>
-      <c r="AA46" s="30"/>
-    </row>
-    <row r="47" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+    </row>
+    <row r="47" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -2286,13 +2534,18 @@
       <c r="X47" s="29"/>
       <c r="Y47" s="29"/>
       <c r="Z47" s="29"/>
-      <c r="AA47" s="30"/>
-    </row>
-    <row r="48" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+    </row>
+    <row r="48" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -2317,13 +2570,18 @@
       <c r="X48" s="29"/>
       <c r="Y48" s="29"/>
       <c r="Z48" s="29"/>
-      <c r="AA48" s="30"/>
-    </row>
-    <row r="49" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+    </row>
+    <row r="49" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -2348,13 +2606,18 @@
       <c r="X49" s="29"/>
       <c r="Y49" s="29"/>
       <c r="Z49" s="29"/>
-      <c r="AA49" s="30"/>
-    </row>
-    <row r="50" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+    </row>
+    <row r="50" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="30"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
@@ -2380,12 +2643,17 @@
       <c r="Y50" s="30"/>
       <c r="Z50" s="30"/>
       <c r="AA50" s="30"/>
-    </row>
-    <row r="51" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="30"/>
+    </row>
+    <row r="51" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K51" s="31"/>
+      <c r="B51" s="26"/>
       <c r="L51" s="31"/>
       <c r="M51" s="31"/>
       <c r="N51" s="31"/>
@@ -2395,15 +2663,20 @@
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
       <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
       <c r="W51" s="31"/>
       <c r="X51" s="31"/>
       <c r="Y51" s="31"/>
       <c r="Z51" s="31"/>
       <c r="AA51" s="31"/>
-    </row>
-    <row r="52" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+    </row>
+    <row r="52" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>65</v>
       </c>
@@ -2433,8 +2706,13 @@
       <c r="Y52" s="31"/>
       <c r="Z52" s="31"/>
       <c r="AA52" s="31"/>
-    </row>
-    <row r="53" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB52" s="31"/>
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="31"/>
+      <c r="AE52" s="31"/>
+      <c r="AF52" s="31"/>
+    </row>
+    <row r="53" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>66</v>
       </c>
@@ -2464,9 +2742,16 @@
       <c r="Y53" s="31"/>
       <c r="Z53" s="31"/>
       <c r="AA53" s="31"/>
-    </row>
-    <row r="54" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
+      <c r="AB53" s="31"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="31"/>
+      <c r="AE53" s="31"/>
+      <c r="AF53" s="31"/>
+    </row>
+    <row r="54" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
@@ -2493,9 +2778,16 @@
       <c r="Y54" s="31"/>
       <c r="Z54" s="31"/>
       <c r="AA54" s="31"/>
-    </row>
-    <row r="55" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
+      <c r="AB54" s="31"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="31"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="31"/>
+    </row>
+    <row r="55" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
@@ -2522,75 +2814,177 @@
       <c r="Y55" s="31"/>
       <c r="Z55" s="31"/>
       <c r="AA55" s="31"/>
-    </row>
-    <row r="56" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="AB55" s="31"/>
+      <c r="AC55" s="31"/>
+      <c r="AD55" s="31"/>
+      <c r="AE55" s="31"/>
+      <c r="AF55" s="31"/>
+    </row>
+    <row r="56" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="31"/>
+      <c r="AB56" s="31"/>
+      <c r="AC56" s="31"/>
+      <c r="AD56" s="31"/>
+      <c r="AE56" s="31"/>
+      <c r="AF56" s="31"/>
+    </row>
+    <row r="57" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="31"/>
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="31"/>
+      <c r="AB57" s="31"/>
+      <c r="AC57" s="31"/>
+      <c r="AD57" s="31"/>
+      <c r="AE57" s="31"/>
+      <c r="AF57" s="31"/>
+    </row>
+    <row r="58" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="K57" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="S57" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-    </row>
-    <row r="58" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="L59" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="T59" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+    </row>
+    <row r="60" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:32" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
+      <c r="AD61" s="34"/>
+      <c r="AE61" s="34"/>
+      <c r="AF61" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="A3:AA3"/>
+  <mergeCells count="5">
+    <mergeCell ref="A61:AF61"/>
+    <mergeCell ref="T59:X59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="A3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
-    <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8Control de versiones
+Circular ASFI/608/2019 (úlima)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
 Anexo 4.3
